--- a/mensajes_salida.xlsx
+++ b/mensajes_salida.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3b21cb4369e719c3/Documentos/Cathy/Magíster/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="8_{43AEE225-EB72-48BB-A58F-C504B2541F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CDE7521-FFAA-4D3D-BAC4-F5EDD013EF56}"/>
+  <xr:revisionPtr revIDLastSave="103" documentId="8_{43AEE225-EB72-48BB-A58F-C504B2541F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECE9750B-FEF6-486D-B3B0-DFB797225566}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$B$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$B$27</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,115 +36,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
-  <si>
-    <t>["Te aconsejo que vayas a casa a dormir un poco. Te vas a sentir como nuevo.", "Dormir es muy importante para tu salud. Descansa un rato y podemos chatear más tarde.", "Descansa un poco y podemos seguir chateando más tarde.", "¿Por qué no vas a dormir un rato? Yo estaré aquí cuando despiertes."]</t>
-  </si>
-  <si>
-    <t>["Espero estar funcionando bien. De todas maneras voy mejorando cada día más. Te invito a que me pongas a prueba cuando quieras.", "Eso es bueno, me gusta que me pongan a prueba. Me ayuda a mantenerme al día y así los que me programan pueden saber como puedo mejorar.", "Te invito a que me pruebes seguido. Esto ayuda a mis programadores a mejorar mi rendimiento.", "Espero pasar tus pruebas. Y si no las paso de todas maneras te agradezco ya que me estás ayudando a mejorar mi rendimiento en el futuro."]</t>
-  </si>
-  <si>
-    <t>["Estaré aquí para chatear cuando quieras.", "Siempre estaré aquí para escucharte y ayudarte.", "Hablar es lo que mejor hago, cuenta conmigo siempre."]</t>
-  </si>
-  <si>
-    <t>["Estoy aquí para que hablemos cuando quieras.", "Una buena conversación me hace el día.", "Siempre estaré aquí para escucharte."]</t>
-  </si>
-  <si>
-    <t>Como soy un asistente virtual, para entenderte, la mejor manera en que me puedes hacer preguntas es **de una a la vez**. Así lograremos un diálogo que nos guiará a darte la respuesta de lo que necesitas o el link en la página web donde encontrarás la información que buscas.&lt;br&gt;
-Por favor escribe **frases o preguntas completas** y chequea que esté **bien estipulada** antes de enviarmela.&lt;br&gt;&lt;br&gt;
-**Ejemplos**:&lt;br&gt;
-**A**. **En vez de**: “Tengo un problema y no se como declarar en este periodo ya que no tuve movimientos entonces no entiendo si tengo que declarar o no”. **Escribe**: “Si no tuve movimientos en el mes, debo declarar?".&lt;br&gt;
-**B**. **En vez de**: "Hola sabes que tengo que me atrase para hacer la declaracion porque no pude antes entonces quiero saber si voy a recibir una multa o algo". **Escribe**: “¿Hay multas por retraso en la declaración?"&lt;br&gt;&lt;br&gt;
-Espero que la información haya sido útil para poder ayudarte. Para conocer más sobre mi [pincha aquí](http://daniela-parra-zps5.squarespace.com/conoce-a-allegra?logout=true).</t>
-  </si>
-  <si>
-    <t>Por favor, especifica o replantea tu pregunta. Intenta haciendo sólo una pregunta a la vez y asegúrate que ésta esté completa.</t>
-  </si>
-  <si>
-    <t>Soy un robot virtual y no puedo acceder a información específica de usuarios para ayudar. Pero podemos intentar con preguntas generales para guiarle y llegar a la información que busca.</t>
-  </si>
-  <si>
-    <t>I am sorry, I only understand and write in Spanish.\nTo assist you, you can write us through:&lt;br&gt;- [**Mesa de Ayuda**](http://www.sii.cl/ayudas/asistencia/3042-mesa_ayuda-3044.html).&lt;br&gt;- [Página web](http://www.sii.cl/ayudas/asistencia/3042-3045.html).&lt;br&gt;- [Facebook](https://www.facebook.com/impuestosinternoschile/).&lt;br&gt;- [Twitter](https://twitter.com/SII_Chile).</t>
-  </si>
-  <si>
-    <t>Mil disculpas, no estoy programada para contestar este tipo de preguntas. ¿Te puedo ayudar en algo más?</t>
-  </si>
-  <si>
-    <t>Lamento no poder ayudarte. Soy un robot muy joven y sigo en entrenamiento.\nRecuerda que puedes contactarnos a través de nuestros canales de atención:&lt;br&gt;- [**Mesa de Ayuda**](http://www.sii.cl/ayudas/asistencia/3042-mesa_ayuda-3044.html).&lt;br&gt;- [Página web](http://www.sii.cl/ayudas/asistencia/3042-3045.html).&lt;br&gt;- [Facebook](https://www.facebook.com/impuestosinternoschile/).&lt;br&gt;- [Twitter](https://twitter.com/SII_Chile).</t>
-  </si>
-  <si>
-    <t>Soy un robot en **entrenamiento** y estoy aquí para ayudarte con tus consultas sobre la **Declaración de IVA**. Manejo información sobre:&lt;br&gt;- Plazos para declarar.&lt;br&gt;Cómo declarar por internet.&lt;br&gt;- Cómo consultar tus declaraciones.&lt;br&gt;- Cómo rectificar tu declaración.&lt;br&gt;- Cómo postergar el pago del IVA.&lt;br&gt;- Cuáles son los medios de pago.&lt;br&gt;- Qué actividades y servicios están gravadas son IVA.&lt;br&gt;- Etc.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
   <si>
     <t>Adelante, ¿en qué te puedo ayudar?</t>
   </si>
   <si>
-    <t>= )</t>
-  </si>
-  <si>
-    <t>["Piensa que soy tu as bajo la manga.", "Con mi ayuda podrás trabajar mejor.", "Te ayudaré a ser más productivo."]</t>
-  </si>
-  <si>
-    <t>["Soy un programa relativamente nuevo pero muy sabio para la edad que tengo.", "La edad es solo un número. Eres tan viejo como te sientes."]</t>
-  </si>
-  <si>
-    <t>Lo siento mucho, sólo trato de ayudarte.</t>
-  </si>
-  <si>
-    <t>["¿Puedes preguntarme de otra manera?", "No estoy programado para contestar esta pregunta exacta. Trata preguntando de otra manera."]</t>
-  </si>
-  <si>
-    <t>["Claro, feliz de ayudarte ¿Qué necesitas?", "Feliz te ayudo, dime ¿Qué puedo hacer por ti?"]</t>
-  </si>
-  <si>
-    <t>No pierdas tus esperanzas, mi mejor trabajo está por venir.</t>
-  </si>
-  <si>
-    <t>["¡Nos vemos pronto! No olvides evaluar el servicio con cara sonriente o triste según corresponda con tu experiencia con el chat.", "¡Chao!" No olvides evaluar el servicio con cara sonriente o triste según corresponda con tu experiencia con el chat., "¡Hasta la próxima! No olvides evaluar el servicio con cara sonriente o triste según corresponda con tu experiencia con el chat."]</t>
-  </si>
-  <si>
-    <t>["Buenas tardes. ¿Cómo va tu día?", "Buenas tardes ¿Cómo va todo?"]</t>
-  </si>
-  <si>
-    <t>["¡Buenos días! ¿Cómo estás hoy dia?", "!Buenos días! ¿Cómo va tu mañana?"]</t>
-  </si>
-  <si>
-    <t>["¡Buenas noches! Que duermas bien.", "¡Buenas noches! Hablamos pronto."]</t>
-  </si>
-  <si>
-    <t>["¡Hola! ¿En qué te puedo ayudar?", "Buen día, ¿en qué te puedo ayudar?"]</t>
-  </si>
-  <si>
-    <t>["Todo bien como siempre, gracias por preguntar. ¿En qué te puedo ayudar?", "Muy bien, gracias por preguntar. ¿En qué te puedo ayudar?"]</t>
-  </si>
-  <si>
-    <t>["Lo mismo digo yo.", "Igualmente. Creo que este es el comienzo de una gran amistad.", "El placer es todo mío."]</t>
-  </si>
-  <si>
-    <t>["Igualmente, te ves radiante como siempre.", "Igualmente, ya te echaba de menos.", "El placer es todo mío."]</t>
-  </si>
-  <si>
-    <t>["Siempre un placer.", "Lo mismo digo yo. ¡No te pierdas!"]</t>
-  </si>
-  <si>
-    <t>["Buenas noches. Espero chatear contigo pronto.", "Buenas noches. Ojalá mañana podamos seguir chateando.", "Buenas noches, nos vemos luego.", "Dulces sueños, nos vemos pronto."]</t>
-  </si>
-  <si>
-    <t>["¡Felicidades! Que sea un gran año.", "¡Feliz cumpleaños! Los mejores deseos para ti."]</t>
-  </si>
-  <si>
-    <t>["Asi veo. ¿Cómo te puedo ayudar hoy?", "Siempre es bueno saber de ti. ¿En qué te puedo ayudar?", "Ya te echaba de menos. ¿Cómo te puedo ayudar?", "Bienvenido de vuelta. ¿Cómo te puedo ayudar?"]</t>
-  </si>
-  <si>
-    <t>["¡He estado aquí todo el tiempo!", "Es bueno saber que alguien me echa de menos.", "Gracias, me siento halagado.", "¡No he ido a ninguna parte jefe!"]</t>
-  </si>
-  <si>
     <t>RESPUESTA</t>
   </si>
   <si>
-    <t>Lamento no poder ayudarte. Soy un robot muy joven y sigo en entrenamiento.</t>
-  </si>
-  <si>
     <t>saludo</t>
   </si>
   <si>
@@ -155,6 +54,81 @@
   </si>
   <si>
     <t>CLASE</t>
+  </si>
+  <si>
+    <t>Buenos días, en qué puedo ayudarte</t>
+  </si>
+  <si>
+    <t>Qué tal, espero te encuentres bien, en qué puedo ayudarte</t>
+  </si>
+  <si>
+    <t>Buenas tardes, en qué puedo ayudarte</t>
+  </si>
+  <si>
+    <t>Buenas noches, en qué puedo ayudarte</t>
+  </si>
+  <si>
+    <t>Hola, feliz de ayudarte ¿Qué necesitas?</t>
+  </si>
+  <si>
+    <t>Buenas tardes. ¿Cómo va tu día?</t>
+  </si>
+  <si>
+    <t>Buenas tardes ¿Cómo va todo?</t>
+  </si>
+  <si>
+    <t>Ya te echaba de menos. ¿Cómo te puedo ayudar?</t>
+  </si>
+  <si>
+    <t>Bienvenido de vuelta. ¿Cómo te puedo ayudar?</t>
+  </si>
+  <si>
+    <t>¡Buenos días! ¿Cómo estás hoy dia?", "!Buenos días! ¿Cómo va tu mañana?</t>
+  </si>
+  <si>
+    <t>¿En qué te puedo ayudar?</t>
+  </si>
+  <si>
+    <t>Soy Chaky , un chatbot, mucho gusto</t>
+  </si>
+  <si>
+    <t>Mi nombre es Chaky ,  mucho gusto</t>
+  </si>
+  <si>
+    <t>Me llamo Chaky, en qué puedo ayudarte</t>
+  </si>
+  <si>
+    <t>No olvides evaluar el servicio con cara sonriente o triste según corresponda con tu experiencia con el chat.</t>
+  </si>
+  <si>
+    <t>Hasta la próxima! No olvides evaluar el servicio con cara sonriente o triste según corresponda con tu experiencia con el chat.</t>
+  </si>
+  <si>
+    <t>¡Nos vemos pronto! No olvides evaluar el servicio con cara sonriente o triste según corresponda con tu experiencia con el chat.</t>
+  </si>
+  <si>
+    <t>¡Buenas noches! Que duermas bien.</t>
+  </si>
+  <si>
+    <t>¡Buenas noches! Hablamos pronto.</t>
+  </si>
+  <si>
+    <t>¡Hola! ¿En qué te puedo ayudar?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ¡No te pierdas!</t>
+  </si>
+  <si>
+    <t>Buenas noches. Espero chatear contigo pronto.</t>
+  </si>
+  <si>
+    <t>Buenas noches. Ojalá mañana podamos seguir chateando.</t>
+  </si>
+  <si>
+    <t>Buenas noches, nos vemos luego</t>
+  </si>
+  <si>
+    <t>Dulces sueños, nos vemos pronto</t>
   </si>
 </sst>
 </file>
@@ -196,7 +170,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -219,11 +193,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
@@ -239,6 +224,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -554,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -568,294 +556,222 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="179.4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>33</v>
+      <c r="A7" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>33</v>
+      <c r="A8" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>9</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>11</v>
+      <c r="A11" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="B15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="B23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>25</v>
+      <c r="A25" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>26</v>
+      <c r="A26" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>27</v>
+      <c r="A27" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="69" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B36" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B36" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:B27" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/mensajes_salida.xlsx
+++ b/mensajes_salida.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3b21cb4369e719c3/Documentos/Cathy/Magíster/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="103" documentId="8_{43AEE225-EB72-48BB-A58F-C504B2541F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECE9750B-FEF6-486D-B3B0-DFB797225566}"/>
+  <xr:revisionPtr revIDLastSave="108" documentId="8_{43AEE225-EB72-48BB-A58F-C504B2541F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{795BBA99-AD32-417C-A9E6-ED70A698EC34}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$B$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$B$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
-  <si>
-    <t>Adelante, ¿en qué te puedo ayudar?</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
   <si>
     <t>RESPUESTA</t>
   </si>
@@ -77,15 +74,9 @@
     <t>Buenas tardes ¿Cómo va todo?</t>
   </si>
   <si>
-    <t>Ya te echaba de menos. ¿Cómo te puedo ayudar?</t>
-  </si>
-  <si>
     <t>Bienvenido de vuelta. ¿Cómo te puedo ayudar?</t>
   </si>
   <si>
-    <t>¡Buenos días! ¿Cómo estás hoy dia?", "!Buenos días! ¿Cómo va tu mañana?</t>
-  </si>
-  <si>
     <t>¿En qué te puedo ayudar?</t>
   </si>
   <si>
@@ -98,12 +89,6 @@
     <t>Me llamo Chaky, en qué puedo ayudarte</t>
   </si>
   <si>
-    <t>No olvides evaluar el servicio con cara sonriente o triste según corresponda con tu experiencia con el chat.</t>
-  </si>
-  <si>
-    <t>Hasta la próxima! No olvides evaluar el servicio con cara sonriente o triste según corresponda con tu experiencia con el chat.</t>
-  </si>
-  <si>
     <t>¡Nos vemos pronto! No olvides evaluar el servicio con cara sonriente o triste según corresponda con tu experiencia con el chat.</t>
   </si>
   <si>
@@ -129,6 +114,9 @@
   </si>
   <si>
     <t>Dulces sueños, nos vemos pronto</t>
+  </si>
+  <si>
+    <t>!Buenos días! ¿Cómo va tu mañana?</t>
   </si>
 </sst>
 </file>
@@ -208,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
@@ -226,6 +214,13 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -542,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -556,86 +551,86 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
+      <c r="A3" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>17</v>
+      <c r="A4" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>8</v>
+      <c r="A5" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>9</v>
+      <c r="A6" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>0</v>
+      <c r="A7" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
+      <c r="A10" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B11" t="s">
@@ -643,135 +638,107 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>23</v>
+      <c r="A12" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>25</v>
+      <c r="A13" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
+      <c r="A14" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>12</v>
+      <c r="A15" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>26</v>
+      <c r="A16" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>21</v>
+      <c r="A23" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B27" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:B23" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B23">
+      <sortCondition ref="B2:B23"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/mensajes_salida.xlsx
+++ b/mensajes_salida.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3b21cb4369e719c3/Documentos/Cathy/Magíster/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="108" documentId="8_{43AEE225-EB72-48BB-A58F-C504B2541F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{795BBA99-AD32-417C-A9E6-ED70A698EC34}"/>
+  <xr:revisionPtr revIDLastSave="109" documentId="8_{43AEE225-EB72-48BB-A58F-C504B2541F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6F39C94-EEE9-4AC0-AC27-1016A794832D}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
   <si>
-    <t>RESPUESTA</t>
-  </si>
-  <si>
     <t>saludo</t>
   </si>
   <si>
@@ -117,6 +114,9 @@
   </si>
   <si>
     <t>!Buenos días! ¿Cómo va tu mañana?</t>
+  </si>
+  <si>
+    <t>PREGUNTA</t>
   </si>
 </sst>
 </file>
@@ -540,7 +540,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -551,186 +551,186 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/mensajes_salida.xlsx
+++ b/mensajes_salida.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3b21cb4369e719c3/Documentos/Cathy/Magíster/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="109" documentId="8_{43AEE225-EB72-48BB-A58F-C504B2541F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6F39C94-EEE9-4AC0-AC27-1016A794832D}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="8_{43AEE225-EB72-48BB-A58F-C504B2541F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4910989E-7CF1-4427-BEB6-81A82E012E07}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$B$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$B$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
   <si>
     <t>saludo</t>
   </si>
@@ -50,21 +50,6 @@
     <t>CLASE</t>
   </si>
   <si>
-    <t>Buenos días, en qué puedo ayudarte</t>
-  </si>
-  <si>
-    <t>Qué tal, espero te encuentres bien, en qué puedo ayudarte</t>
-  </si>
-  <si>
-    <t>Buenas tardes, en qué puedo ayudarte</t>
-  </si>
-  <si>
-    <t>Buenas noches, en qué puedo ayudarte</t>
-  </si>
-  <si>
-    <t>Hola, feliz de ayudarte ¿Qué necesitas?</t>
-  </si>
-  <si>
     <t>Buenas tardes. ¿Cómo va tu día?</t>
   </si>
   <si>
@@ -74,9 +59,6 @@
     <t>Bienvenido de vuelta. ¿Cómo te puedo ayudar?</t>
   </si>
   <si>
-    <t>¿En qué te puedo ayudar?</t>
-  </si>
-  <si>
     <t>Soy Chaky , un chatbot, mucho gusto</t>
   </si>
   <si>
@@ -86,9 +68,6 @@
     <t>Me llamo Chaky, en qué puedo ayudarte</t>
   </si>
   <si>
-    <t>¡Nos vemos pronto! No olvides evaluar el servicio con cara sonriente o triste según corresponda con tu experiencia con el chat.</t>
-  </si>
-  <si>
     <t>¡Buenas noches! Que duermas bien.</t>
   </si>
   <si>
@@ -98,25 +77,40 @@
     <t>¡Hola! ¿En qué te puedo ayudar?</t>
   </si>
   <si>
-    <t xml:space="preserve"> ¡No te pierdas!</t>
-  </si>
-  <si>
-    <t>Buenas noches. Espero chatear contigo pronto.</t>
-  </si>
-  <si>
     <t>Buenas noches. Ojalá mañana podamos seguir chateando.</t>
   </si>
   <si>
     <t>Buenas noches, nos vemos luego</t>
   </si>
   <si>
-    <t>Dulces sueños, nos vemos pronto</t>
-  </si>
-  <si>
     <t>!Buenos días! ¿Cómo va tu mañana?</t>
   </si>
   <si>
-    <t>PREGUNTA</t>
+    <t>RESPUESTA</t>
+  </si>
+  <si>
+    <t>¡Nos vemos pronto!</t>
+  </si>
+  <si>
+    <t>¡No te pierdas!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buenas noches. </t>
+  </si>
+  <si>
+    <t>Qué tal</t>
+  </si>
+  <si>
+    <t>Buenos días</t>
+  </si>
+  <si>
+    <t>Buenas tardes</t>
+  </si>
+  <si>
+    <t>Buenas noches</t>
+  </si>
+  <si>
+    <t>Hola estimado</t>
   </si>
 </sst>
 </file>
@@ -537,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -551,15 +545,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -567,7 +561,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -575,7 +569,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -583,7 +577,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -591,7 +585,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -599,7 +593,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -607,87 +601,87 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
+      <c r="A9" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>14</v>
+      <c r="A11" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>9</v>
       </c>
       <c r="B18" t="s">
         <v>0</v>
@@ -695,7 +689,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
         <v>0</v>
@@ -703,40 +697,24 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>12</v>
+      <c r="A21" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B21" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" t="s">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:B23" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B23">
-      <sortCondition ref="B2:B23"/>
+  <autoFilter ref="A1:B21" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B21">
+      <sortCondition ref="B2:B21"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mensajes_salida.xlsx
+++ b/mensajes_salida.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3b21cb4369e719c3/Documentos/Cathy/Magíster/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="123" documentId="8_{43AEE225-EB72-48BB-A58F-C504B2541F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4910989E-7CF1-4427-BEB6-81A82E012E07}"/>
+  <xr:revisionPtr revIDLastSave="126" documentId="8_{43AEE225-EB72-48BB-A58F-C504B2541F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9492FFC7-C3C2-4D47-8780-5808C81099C7}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,9 +47,6 @@
     <t>despedida</t>
   </si>
   <si>
-    <t>CLASE</t>
-  </si>
-  <si>
     <t>Buenas tardes. ¿Cómo va tu día?</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t>!Buenos días! ¿Cómo va tu mañana?</t>
   </si>
   <si>
-    <t>RESPUESTA</t>
-  </si>
-  <si>
     <t>¡Nos vemos pronto!</t>
   </si>
   <si>
@@ -111,6 +105,12 @@
   </si>
   <si>
     <t>Hola estimado</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>text</t>
   </si>
 </sst>
 </file>
@@ -534,26 +534,26 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="100.33203125" customWidth="1"/>
+    <col min="1" max="1" width="46.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="255" width="28.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -561,7 +561,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -577,7 +577,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -585,7 +585,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -593,7 +593,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -601,7 +601,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -609,7 +609,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -625,7 +625,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -633,7 +633,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
@@ -641,7 +641,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
@@ -657,7 +657,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>0</v>
@@ -665,7 +665,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>0</v>
@@ -673,7 +673,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
         <v>0</v>
@@ -689,7 +689,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
         <v>0</v>
@@ -697,7 +697,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
@@ -705,7 +705,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
         <v>0</v>
